--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H2">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I2">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J2">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.882939626581263</v>
+        <v>1.298645666666667</v>
       </c>
       <c r="N2">
-        <v>0.882939626581263</v>
+        <v>3.895937</v>
       </c>
       <c r="O2">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="P2">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="Q2">
-        <v>4.065263590903552</v>
+        <v>6.685380274992221</v>
       </c>
       <c r="R2">
-        <v>4.065263590903552</v>
+        <v>60.16842247492999</v>
       </c>
       <c r="S2">
-        <v>0.001523326550055647</v>
+        <v>0.002037252672369697</v>
       </c>
       <c r="T2">
-        <v>0.001523326550055647</v>
+        <v>0.002037252672369697</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H3">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I3">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J3">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.7426538041029</v>
+        <v>19.11622733333333</v>
       </c>
       <c r="N3">
-        <v>18.7426538041029</v>
+        <v>57.348682</v>
       </c>
       <c r="O3">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="P3">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="Q3">
-        <v>86.29562635188492</v>
+        <v>98.40963738366445</v>
       </c>
       <c r="R3">
-        <v>86.29562635188492</v>
+        <v>885.6867364529801</v>
       </c>
       <c r="S3">
-        <v>0.03233650557608499</v>
+        <v>0.02998861523206868</v>
       </c>
       <c r="T3">
-        <v>0.03233650557608499</v>
+        <v>0.02998861523206868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H4">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I4">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J4">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.6225738954044</v>
+        <v>17.81123966666667</v>
       </c>
       <c r="N4">
-        <v>10.6225738954044</v>
+        <v>53.433719</v>
       </c>
       <c r="O4">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="P4">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="Q4">
-        <v>48.90885129471029</v>
+        <v>91.69160872521222</v>
       </c>
       <c r="R4">
-        <v>48.90885129471029</v>
+        <v>825.2244785269099</v>
       </c>
       <c r="S4">
-        <v>0.01832701620545994</v>
+        <v>0.02794141353605088</v>
       </c>
       <c r="T4">
-        <v>0.01832701620545994</v>
+        <v>0.02794141353605088</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H5">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I5">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J5">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.0118848148055</v>
+        <v>11.18768033333333</v>
       </c>
       <c r="N5">
-        <v>11.0118848148055</v>
+        <v>33.563041</v>
       </c>
       <c r="O5">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="P5">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="Q5">
-        <v>50.70133116370257</v>
+        <v>57.59376814105444</v>
       </c>
       <c r="R5">
-        <v>50.70133116370257</v>
+        <v>518.3439132694899</v>
       </c>
       <c r="S5">
-        <v>0.01899869028361469</v>
+        <v>0.01755069318885385</v>
       </c>
       <c r="T5">
-        <v>0.01899869028361469</v>
+        <v>0.01755069318885385</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H6">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I6">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J6">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.5819826803406</v>
+        <v>2.724147666666667</v>
       </c>
       <c r="N6">
-        <v>2.5819826803406</v>
+        <v>8.172442999999999</v>
       </c>
       <c r="O6">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="P6">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="Q6">
-        <v>11.88806104826709</v>
+        <v>14.02381230258555</v>
       </c>
       <c r="R6">
-        <v>11.88806104826709</v>
+        <v>126.21431072327</v>
       </c>
       <c r="S6">
-        <v>0.004454667850820123</v>
+        <v>0.004273511440646762</v>
       </c>
       <c r="T6">
-        <v>0.004454667850820123</v>
+        <v>0.004273511440646762</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.6042373323352</v>
+        <v>5.147963333333333</v>
       </c>
       <c r="H7">
-        <v>4.6042373323352</v>
+        <v>15.44389</v>
       </c>
       <c r="I7">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="J7">
-        <v>0.08252137275825804</v>
+        <v>0.08821283672358764</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.98841233107681</v>
+        <v>4.093286666666667</v>
       </c>
       <c r="N7">
-        <v>3.98841233107681</v>
+        <v>12.27986</v>
       </c>
       <c r="O7">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="P7">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="Q7">
-        <v>18.36359695148991</v>
+        <v>21.07208967282222</v>
       </c>
       <c r="R7">
-        <v>18.36359695148991</v>
+        <v>189.6488070554</v>
       </c>
       <c r="S7">
-        <v>0.006881166292222644</v>
+        <v>0.006421350653597774</v>
       </c>
       <c r="T7">
-        <v>0.006881166292222644</v>
+        <v>0.006421350653597774</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H8">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I8">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J8">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.882939626581263</v>
+        <v>1.298645666666667</v>
       </c>
       <c r="N8">
-        <v>0.882939626581263</v>
+        <v>3.895937</v>
       </c>
       <c r="O8">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="P8">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="Q8">
-        <v>9.282267760657025</v>
+        <v>13.67017759353678</v>
       </c>
       <c r="R8">
-        <v>9.282267760657025</v>
+        <v>123.031598341831</v>
       </c>
       <c r="S8">
-        <v>0.003478230773565081</v>
+        <v>0.004165747450205226</v>
       </c>
       <c r="T8">
-        <v>0.003478230773565081</v>
+        <v>0.004165747450205225</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H9">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I9">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J9">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.7426538041029</v>
+        <v>19.11622733333333</v>
       </c>
       <c r="N9">
-        <v>18.7426538041029</v>
+        <v>57.348682</v>
       </c>
       <c r="O9">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="P9">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="Q9">
-        <v>197.0398948211302</v>
+        <v>201.2267312575296</v>
       </c>
       <c r="R9">
-        <v>197.0398948211302</v>
+        <v>1811.040581317766</v>
       </c>
       <c r="S9">
-        <v>0.0738343520633767</v>
+        <v>0.06132032571731277</v>
       </c>
       <c r="T9">
-        <v>0.0738343520633767</v>
+        <v>0.06132032571731277</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H10">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I10">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J10">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.6225738954044</v>
+        <v>17.81123966666667</v>
       </c>
       <c r="N10">
-        <v>10.6225738954044</v>
+        <v>53.433719</v>
       </c>
       <c r="O10">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="P10">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="Q10">
-        <v>111.6741985930498</v>
+        <v>187.4897946792108</v>
       </c>
       <c r="R10">
-        <v>111.6741985930498</v>
+        <v>1687.408152112897</v>
       </c>
       <c r="S10">
-        <v>0.04184630783933234</v>
+        <v>0.05713423463450064</v>
       </c>
       <c r="T10">
-        <v>0.04184630783933234</v>
+        <v>0.05713423463450064</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H11">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I11">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J11">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.0118848148055</v>
+        <v>11.18768033333333</v>
       </c>
       <c r="N11">
-        <v>11.0118848148055</v>
+        <v>33.563041</v>
       </c>
       <c r="O11">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="P11">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="Q11">
-        <v>115.7669905430733</v>
+        <v>117.7669790474426</v>
       </c>
       <c r="R11">
-        <v>115.7669905430733</v>
+        <v>1059.902811426983</v>
       </c>
       <c r="S11">
-        <v>0.04337994975501908</v>
+        <v>0.0358874264308903</v>
       </c>
       <c r="T11">
-        <v>0.04337994975501908</v>
+        <v>0.0358874264308903</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H12">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I12">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J12">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.5819826803406</v>
+        <v>2.724147666666667</v>
       </c>
       <c r="N12">
-        <v>2.5819826803406</v>
+        <v>8.172442999999999</v>
       </c>
       <c r="O12">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="P12">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="Q12">
-        <v>27.14416011103625</v>
+        <v>28.67570681534545</v>
       </c>
       <c r="R12">
-        <v>27.14416011103625</v>
+        <v>258.081361338109</v>
       </c>
       <c r="S12">
-        <v>0.01017139943117749</v>
+        <v>0.00873841994600979</v>
       </c>
       <c r="T12">
-        <v>0.01017139943117749</v>
+        <v>0.00873841994600979</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.512913319564</v>
+        <v>10.52648766666667</v>
       </c>
       <c r="H13">
-        <v>10.512913319564</v>
+        <v>31.579463</v>
       </c>
       <c r="I13">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="J13">
-        <v>0.188422093866954</v>
+        <v>0.1803764474777778</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.98841233107681</v>
+        <v>4.093286666666667</v>
       </c>
       <c r="N13">
-        <v>3.98841233107681</v>
+        <v>12.27986</v>
       </c>
       <c r="O13">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="P13">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="Q13">
-        <v>41.92983311929069</v>
+        <v>43.08793161279778</v>
       </c>
       <c r="R13">
-        <v>41.92983311929069</v>
+        <v>387.7913845151801</v>
       </c>
       <c r="S13">
-        <v>0.01571185400448329</v>
+        <v>0.01313029329885908</v>
       </c>
       <c r="T13">
-        <v>0.01571185400448329</v>
+        <v>0.01313029329885908</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.5157502220847</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H14">
-        <v>14.5157502220847</v>
+        <v>47.607193</v>
       </c>
       <c r="I14">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J14">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.882939626581263</v>
+        <v>1.298645666666667</v>
       </c>
       <c r="N14">
-        <v>0.882939626581263</v>
+        <v>3.895937</v>
       </c>
       <c r="O14">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="P14">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="Q14">
-        <v>12.81653108063435</v>
+        <v>20.60829163053789</v>
       </c>
       <c r="R14">
-        <v>12.81653108063435</v>
+        <v>185.474624674841</v>
       </c>
       <c r="S14">
-        <v>0.004802582080638051</v>
+        <v>0.006280016314754245</v>
       </c>
       <c r="T14">
-        <v>0.004802582080638051</v>
+        <v>0.006280016314754245</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.5157502220847</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H15">
-        <v>14.5157502220847</v>
+        <v>47.607193</v>
       </c>
       <c r="I15">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J15">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.7426538041029</v>
+        <v>19.11622733333333</v>
       </c>
       <c r="N15">
-        <v>18.7426538041029</v>
+        <v>57.348682</v>
       </c>
       <c r="O15">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="P15">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="Q15">
-        <v>272.0636811193633</v>
+        <v>303.3566413632918</v>
       </c>
       <c r="R15">
-        <v>272.0636811193633</v>
+        <v>2730.209772269626</v>
       </c>
       <c r="S15">
-        <v>0.1019470987520602</v>
+        <v>0.09244262897209404</v>
       </c>
       <c r="T15">
-        <v>0.1019470987520602</v>
+        <v>0.09244262897209404</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.5157502220847</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H16">
-        <v>14.5157502220847</v>
+        <v>47.607193</v>
       </c>
       <c r="I16">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J16">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.6225738954044</v>
+        <v>17.81123966666667</v>
       </c>
       <c r="N16">
-        <v>10.6225738954044</v>
+        <v>53.433719</v>
       </c>
       <c r="O16">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="P16">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="Q16">
-        <v>154.1946293813276</v>
+        <v>282.6477081267519</v>
       </c>
       <c r="R16">
-        <v>154.1946293813276</v>
+        <v>2543.829373140767</v>
       </c>
       <c r="S16">
-        <v>0.05777946929152509</v>
+        <v>0.08613194388872147</v>
       </c>
       <c r="T16">
-        <v>0.05777946929152509</v>
+        <v>0.08613194388872147</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.5157502220847</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H17">
-        <v>14.5157502220847</v>
+        <v>47.607193</v>
       </c>
       <c r="I17">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J17">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.0118848148055</v>
+        <v>11.18768033333333</v>
       </c>
       <c r="N17">
-        <v>11.0118848148055</v>
+        <v>33.563041</v>
       </c>
       <c r="O17">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="P17">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="Q17">
-        <v>159.8457694460841</v>
+        <v>177.5380189504348</v>
       </c>
       <c r="R17">
-        <v>159.8457694460841</v>
+        <v>1597.842170553913</v>
       </c>
       <c r="S17">
-        <v>0.05989705195405877</v>
+        <v>0.05410160509596681</v>
       </c>
       <c r="T17">
-        <v>0.05989705195405877</v>
+        <v>0.0541016050959668</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.5157502220847</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H18">
-        <v>14.5157502220847</v>
+        <v>47.607193</v>
       </c>
       <c r="I18">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J18">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.5819826803406</v>
+        <v>2.724147666666667</v>
       </c>
       <c r="N18">
-        <v>2.5819826803406</v>
+        <v>8.172442999999999</v>
       </c>
       <c r="O18">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="P18">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="Q18">
-        <v>37.47941566557291</v>
+        <v>43.22967457583322</v>
       </c>
       <c r="R18">
-        <v>37.47941566557291</v>
+        <v>389.067071182499</v>
       </c>
       <c r="S18">
-        <v>0.01404420345379107</v>
+        <v>0.01317348698693001</v>
       </c>
       <c r="T18">
-        <v>0.01404420345379107</v>
+        <v>0.01317348698693001</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.5157502220847</v>
+        <v>15.86906433333333</v>
       </c>
       <c r="H19">
-        <v>14.5157502220847</v>
+        <v>47.607193</v>
       </c>
       <c r="I19">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="J19">
-        <v>0.2601646154358603</v>
+        <v>0.2719240776111022</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.98841233107681</v>
+        <v>4.093286666666667</v>
       </c>
       <c r="N19">
-        <v>3.98841233107681</v>
+        <v>12.27986</v>
       </c>
       <c r="O19">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="P19">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="Q19">
-        <v>57.89479718059356</v>
+        <v>64.9566294481089</v>
       </c>
       <c r="R19">
-        <v>57.89479718059356</v>
+        <v>584.60966503298</v>
       </c>
       <c r="S19">
-        <v>0.0216942099037871</v>
+        <v>0.0197943963526356</v>
       </c>
       <c r="T19">
-        <v>0.0216942099037871</v>
+        <v>0.0197943963526356</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.1083783579714</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H20">
-        <v>15.1083783579714</v>
+        <v>45.36154</v>
       </c>
       <c r="I20">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J20">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.882939626581263</v>
+        <v>1.298645666666667</v>
       </c>
       <c r="N20">
-        <v>0.882939626581263</v>
+        <v>3.895937</v>
       </c>
       <c r="O20">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="P20">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="Q20">
-        <v>13.3397859456357</v>
+        <v>19.63618911810889</v>
       </c>
       <c r="R20">
-        <v>13.3397859456357</v>
+        <v>176.72570206298</v>
       </c>
       <c r="S20">
-        <v>0.00499865498230325</v>
+        <v>0.005983785081854695</v>
       </c>
       <c r="T20">
-        <v>0.00499865498230325</v>
+        <v>0.005983785081854694</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.1083783579714</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H21">
-        <v>15.1083783579714</v>
+        <v>45.36154</v>
       </c>
       <c r="I21">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J21">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>18.7426538041029</v>
+        <v>19.11622733333333</v>
       </c>
       <c r="N21">
-        <v>18.7426538041029</v>
+        <v>57.348682</v>
       </c>
       <c r="O21">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="P21">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="Q21">
-        <v>283.1711051048586</v>
+        <v>289.0471702766978</v>
       </c>
       <c r="R21">
-        <v>283.1711051048586</v>
+        <v>2601.42453249028</v>
       </c>
       <c r="S21">
-        <v>0.1061092480153185</v>
+        <v>0.08808206801486494</v>
       </c>
       <c r="T21">
-        <v>0.1061092480153185</v>
+        <v>0.08808206801486494</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.1083783579714</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H22">
-        <v>15.1083783579714</v>
+        <v>45.36154</v>
       </c>
       <c r="I22">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J22">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.6225738954044</v>
+        <v>17.81123966666667</v>
       </c>
       <c r="N22">
-        <v>10.6225738954044</v>
+        <v>53.433719</v>
       </c>
       <c r="O22">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="P22">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="Q22">
-        <v>160.4898655472798</v>
+        <v>269.3150868630289</v>
       </c>
       <c r="R22">
-        <v>160.4898655472798</v>
+        <v>2423.83578176726</v>
       </c>
       <c r="S22">
-        <v>0.0601384062155473</v>
+        <v>0.08206906082419087</v>
       </c>
       <c r="T22">
-        <v>0.0601384062155473</v>
+        <v>0.08206906082419087</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.1083783579714</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H23">
-        <v>15.1083783579714</v>
+        <v>45.36154</v>
       </c>
       <c r="I23">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J23">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.0118848148055</v>
+        <v>11.18768033333333</v>
       </c>
       <c r="N23">
-        <v>11.0118848148055</v>
+        <v>33.563041</v>
       </c>
       <c r="O23">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="P23">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="Q23">
-        <v>166.3717222164813</v>
+        <v>169.1634696492378</v>
       </c>
       <c r="R23">
-        <v>166.3717222164813</v>
+        <v>1522.47122684314</v>
       </c>
       <c r="S23">
-        <v>0.0623424424920302</v>
+        <v>0.05154960771631509</v>
       </c>
       <c r="T23">
-        <v>0.0623424424920302</v>
+        <v>0.05154960771631509</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.1083783579714</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H24">
-        <v>15.1083783579714</v>
+        <v>45.36154</v>
       </c>
       <c r="I24">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J24">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.5819826803406</v>
+        <v>2.724147666666667</v>
       </c>
       <c r="N24">
-        <v>2.5819826803406</v>
+        <v>8.172442999999999</v>
       </c>
       <c r="O24">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="P24">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="Q24">
-        <v>39.00957124831491</v>
+        <v>41.19051111580222</v>
       </c>
       <c r="R24">
-        <v>39.00957124831491</v>
+        <v>370.71460004222</v>
       </c>
       <c r="S24">
-        <v>0.01461757995762281</v>
+        <v>0.01255208759939081</v>
       </c>
       <c r="T24">
-        <v>0.01461757995762281</v>
+        <v>0.01255208759939081</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.1083783579714</v>
+        <v>15.12051333333333</v>
       </c>
       <c r="H25">
-        <v>15.1083783579714</v>
+        <v>45.36154</v>
       </c>
       <c r="I25">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="J25">
-        <v>0.2707862415117112</v>
+        <v>0.2590972948881719</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.98841233107681</v>
+        <v>4.093286666666667</v>
       </c>
       <c r="N25">
-        <v>3.98841233107681</v>
+        <v>12.27986</v>
       </c>
       <c r="O25">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="P25">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="Q25">
-        <v>60.25844254550714</v>
+        <v>61.89259562048889</v>
       </c>
       <c r="R25">
-        <v>60.25844254550714</v>
+        <v>557.0333605844</v>
       </c>
       <c r="S25">
-        <v>0.0225799098488892</v>
+        <v>0.01886068565155551</v>
       </c>
       <c r="T25">
-        <v>0.0225799098488892</v>
+        <v>0.01886068565155551</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.70442513609964</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H26">
-        <v>5.70442513609964</v>
+        <v>17.531326</v>
       </c>
       <c r="I26">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J26">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.882939626581263</v>
+        <v>1.298645666666667</v>
       </c>
       <c r="N26">
-        <v>0.882939626581263</v>
+        <v>3.895937</v>
       </c>
       <c r="O26">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="P26">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="Q26">
-        <v>5.036662999528586</v>
+        <v>7.588993513606888</v>
       </c>
       <c r="R26">
-        <v>5.036662999528586</v>
+        <v>68.30094162246199</v>
       </c>
       <c r="S26">
-        <v>0.001887327180464455</v>
+        <v>0.002312612997352633</v>
       </c>
       <c r="T26">
-        <v>0.001887327180464455</v>
+        <v>0.002312612997352633</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.70442513609964</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H27">
-        <v>5.70442513609964</v>
+        <v>17.531326</v>
       </c>
       <c r="I27">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J27">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>18.7426538041029</v>
+        <v>19.11622733333333</v>
       </c>
       <c r="N27">
-        <v>18.7426538041029</v>
+        <v>57.348682</v>
       </c>
       <c r="O27">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="P27">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="Q27">
-        <v>106.9160654773381</v>
+        <v>111.7109377569258</v>
       </c>
       <c r="R27">
-        <v>106.9160654773381</v>
+        <v>1005.398439812332</v>
       </c>
       <c r="S27">
-        <v>0.04006335075874324</v>
+        <v>0.03404195380321678</v>
       </c>
       <c r="T27">
-        <v>0.04006335075874324</v>
+        <v>0.03404195380321678</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.70442513609964</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H28">
-        <v>5.70442513609964</v>
+        <v>17.531326</v>
       </c>
       <c r="I28">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J28">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>10.6225738954044</v>
+        <v>17.81123966666667</v>
       </c>
       <c r="N28">
-        <v>10.6225738954044</v>
+        <v>53.433719</v>
       </c>
       <c r="O28">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="P28">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="Q28">
-        <v>60.59567753902073</v>
+        <v>104.0848830201549</v>
       </c>
       <c r="R28">
-        <v>60.59567753902073</v>
+        <v>936.763947181394</v>
       </c>
       <c r="S28">
-        <v>0.0227062777971759</v>
+        <v>0.03171804704652265</v>
       </c>
       <c r="T28">
-        <v>0.0227062777971759</v>
+        <v>0.03171804704652265</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.70442513609964</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H29">
-        <v>5.70442513609964</v>
+        <v>17.531326</v>
       </c>
       <c r="I29">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J29">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.0118848148055</v>
+        <v>11.18768033333333</v>
       </c>
       <c r="N29">
-        <v>11.0118848148055</v>
+        <v>33.563041</v>
       </c>
       <c r="O29">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="P29">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="Q29">
-        <v>62.81647253341042</v>
+        <v>65.37829036915177</v>
       </c>
       <c r="R29">
-        <v>62.81647253341042</v>
+        <v>588.404613322366</v>
       </c>
       <c r="S29">
-        <v>0.02353844916848729</v>
+        <v>0.0199228901410057</v>
       </c>
       <c r="T29">
-        <v>0.02353844916848729</v>
+        <v>0.0199228901410057</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.70442513609964</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H30">
-        <v>5.70442513609964</v>
+        <v>17.531326</v>
       </c>
       <c r="I30">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J30">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.5819826803406</v>
+        <v>2.724147666666667</v>
       </c>
       <c r="N30">
-        <v>2.5819826803406</v>
+        <v>8.172442999999999</v>
       </c>
       <c r="O30">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="P30">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="Q30">
-        <v>14.72872690270884</v>
+        <v>15.91930693882422</v>
       </c>
       <c r="R30">
-        <v>14.72872690270884</v>
+        <v>143.273762449418</v>
       </c>
       <c r="S30">
-        <v>0.005519115855025881</v>
+        <v>0.004851130267743945</v>
       </c>
       <c r="T30">
-        <v>0.005519115855025881</v>
+        <v>0.004851130267743945</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.70442513609964</v>
+        <v>5.843775333333333</v>
       </c>
       <c r="H31">
-        <v>5.70442513609964</v>
+        <v>17.531326</v>
       </c>
       <c r="I31">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235315</v>
       </c>
       <c r="J31">
-        <v>0.1022399496484914</v>
+        <v>0.1001359112235316</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.98841233107681</v>
+        <v>4.093286666666667</v>
       </c>
       <c r="N31">
-        <v>3.98841233107681</v>
+        <v>12.27986</v>
       </c>
       <c r="O31">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="P31">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="Q31">
-        <v>22.75159955452431</v>
+        <v>23.92024765492889</v>
       </c>
       <c r="R31">
-        <v>22.75159955452431</v>
+        <v>215.28222889436</v>
       </c>
       <c r="S31">
-        <v>0.008525428888594635</v>
+        <v>0.007289276967689853</v>
       </c>
       <c r="T31">
-        <v>0.008525428888594635</v>
+        <v>0.007289276967689854</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.34877866633504</v>
+        <v>5.850633666666667</v>
       </c>
       <c r="H32">
-        <v>5.34877866633504</v>
+        <v>17.551901</v>
       </c>
       <c r="I32">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="J32">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.882939626581263</v>
+        <v>1.298645666666667</v>
       </c>
       <c r="N32">
-        <v>0.882939626581263</v>
+        <v>3.895937</v>
       </c>
       <c r="O32">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="P32">
-        <v>0.01845978198300397</v>
+        <v>0.02309474162760879</v>
       </c>
       <c r="Q32">
-        <v>4.722648638319686</v>
+        <v>7.597900058470778</v>
       </c>
       <c r="R32">
-        <v>4.722648638319686</v>
+        <v>68.38110052623699</v>
       </c>
       <c r="S32">
-        <v>0.00176966041597749</v>
+        <v>0.002315327111072299</v>
       </c>
       <c r="T32">
-        <v>0.00176966041597749</v>
+        <v>0.002315327111072298</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.34877866633504</v>
+        <v>5.850633666666667</v>
       </c>
       <c r="H33">
-        <v>5.34877866633504</v>
+        <v>17.551901</v>
       </c>
       <c r="I33">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="J33">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>18.7426538041029</v>
+        <v>19.11622733333333</v>
       </c>
       <c r="N33">
-        <v>18.7426538041029</v>
+        <v>57.348682</v>
       </c>
       <c r="O33">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="P33">
-        <v>0.3918561276339048</v>
+        <v>0.3399574976376413</v>
       </c>
       <c r="Q33">
-        <v>100.2503068178889</v>
+        <v>111.8420432160536</v>
       </c>
       <c r="R33">
-        <v>100.2503068178889</v>
+        <v>1006.578388944482</v>
       </c>
       <c r="S33">
-        <v>0.03756557246832112</v>
+        <v>0.03408190589808407</v>
       </c>
       <c r="T33">
-        <v>0.03756557246832112</v>
+        <v>0.03408190589808407</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.34877866633504</v>
+        <v>5.850633666666667</v>
       </c>
       <c r="H34">
-        <v>5.34877866633504</v>
+        <v>17.551901</v>
       </c>
       <c r="I34">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="J34">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>10.6225738954044</v>
+        <v>17.81123966666667</v>
       </c>
       <c r="N34">
-        <v>10.6225738954044</v>
+        <v>53.433719</v>
       </c>
       <c r="O34">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="P34">
-        <v>0.222088115998118</v>
+        <v>0.3167499717031489</v>
       </c>
       <c r="Q34">
-        <v>56.81779663330656</v>
+        <v>104.2070384388688</v>
       </c>
       <c r="R34">
-        <v>56.81779663330656</v>
+        <v>937.8633459498189</v>
       </c>
       <c r="S34">
-        <v>0.02129063864907737</v>
+        <v>0.0317552717731624</v>
       </c>
       <c r="T34">
-        <v>0.02129063864907737</v>
+        <v>0.0317552717731624</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.34877866633504</v>
+        <v>5.850633666666667</v>
       </c>
       <c r="H35">
-        <v>5.34877866633504</v>
+        <v>17.551901</v>
       </c>
       <c r="I35">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="J35">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.0118848148055</v>
+        <v>11.18768033333333</v>
       </c>
       <c r="N35">
-        <v>11.0118848148055</v>
+        <v>33.563041</v>
       </c>
       <c r="O35">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="P35">
-        <v>0.230227511353578</v>
+        <v>0.1989584944858812</v>
       </c>
       <c r="Q35">
-        <v>58.90013457357044</v>
+        <v>65.45501921010455</v>
       </c>
       <c r="R35">
-        <v>58.90013457357044</v>
+        <v>589.0951728909409</v>
       </c>
       <c r="S35">
-        <v>0.02207092770036792</v>
+        <v>0.01994627191284949</v>
       </c>
       <c r="T35">
-        <v>0.02207092770036792</v>
+        <v>0.01994627191284949</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.34877866633504</v>
+        <v>5.850633666666667</v>
       </c>
       <c r="H36">
-        <v>5.34877866633504</v>
+        <v>17.551901</v>
       </c>
       <c r="I36">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="J36">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.5819826803406</v>
+        <v>2.724147666666667</v>
       </c>
       <c r="N36">
-        <v>2.5819826803406</v>
+        <v>8.172442999999999</v>
       </c>
       <c r="O36">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="P36">
-        <v>0.05398198917351794</v>
+        <v>0.04844545986019796</v>
       </c>
       <c r="Q36">
-        <v>13.81045387745237</v>
+        <v>15.93799005157144</v>
       </c>
       <c r="R36">
-        <v>13.81045387745237</v>
+        <v>143.441910464143</v>
       </c>
       <c r="S36">
-        <v>0.005175022625080564</v>
+        <v>0.004856823619476657</v>
       </c>
       <c r="T36">
-        <v>0.005175022625080564</v>
+        <v>0.004856823619476657</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.34877866633504</v>
+        <v>5.850633666666667</v>
       </c>
       <c r="H37">
-        <v>5.34877866633504</v>
+        <v>17.551901</v>
       </c>
       <c r="I37">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="J37">
-        <v>0.09586572677872504</v>
+        <v>0.100253432075829</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.98841233107681</v>
+        <v>4.093286666666667</v>
       </c>
       <c r="N37">
-        <v>3.98841233107681</v>
+        <v>12.27986</v>
       </c>
       <c r="O37">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="P37">
-        <v>0.08338647385787745</v>
+        <v>0.0727938346855219</v>
       </c>
       <c r="Q37">
-        <v>21.33313478901125</v>
+        <v>23.94832077931778</v>
       </c>
       <c r="R37">
-        <v>21.33313478901125</v>
+        <v>215.53488701386</v>
       </c>
       <c r="S37">
-        <v>0.007993904919900579</v>
+        <v>0.007297831761184095</v>
       </c>
       <c r="T37">
-        <v>0.007993904919900579</v>
+        <v>0.007297831761184095</v>
       </c>
     </row>
   </sheetData>
